--- a/MI_Muscle.xlsx
+++ b/MI_Muscle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2321EB41-763F-41B5-93A8-B10A4640E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C5EC7-2FE0-43FB-9B6C-24A56C681959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13416" yWindow="3432" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Trawl:</t>
   </si>
@@ -58,13 +58,34 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>MINK003</t>
+  </si>
+  <si>
+    <t>MINK004</t>
+  </si>
+  <si>
+    <t>MINK005</t>
+  </si>
+  <si>
+    <t>MINK006</t>
+  </si>
+  <si>
+    <t>MINK007</t>
+  </si>
+  <si>
+    <t>Gadiculus thori</t>
+  </si>
+  <si>
+    <t>MIGT002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +105,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +468,93 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>